--- a/Documentation/testing.xlsx
+++ b/Documentation/testing.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Francesco\Documents\GitHub\Nintondo\Documentazione\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C3B6E55-BB9E-4DCF-A37D-D31292A9A0B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B952E8C-3B26-4DAC-BC86-5BF238C956B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{D34CA040-6601-478B-873D-F3DA30FA7EE0}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="894" uniqueCount="341">
   <si>
     <t>Test Case Description</t>
   </si>
@@ -948,9 +948,6 @@
     <t>Rhino initial position</t>
   </si>
   <si>
-    <t>(X,Y)</t>
-  </si>
-  <si>
     <t>Test the paddle inital positon</t>
   </si>
   <si>
@@ -1057,6 +1054,15 @@
   </si>
   <si>
     <t>(4*8, 7*8)</t>
+  </si>
+  <si>
+    <t>(16, 96 - 12)</t>
+  </si>
+  <si>
+    <t>(128/2,16 + 96/2)</t>
+  </si>
+  <si>
+    <t>(0,59)</t>
   </si>
 </sst>
 </file>
@@ -1166,7 +1172,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1540,7 +1548,7 @@
   <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1583,13 +1591,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" t="s">
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -1635,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -2175,7 +2183,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5AC73CF-1FDE-42EC-8260-5FCB84030C91}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
@@ -2213,13 +2221,13 @@
         <v>5</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>26</v>
@@ -2239,7 +2247,7 @@
         <v>7</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>26</v>
@@ -2764,8 +2772,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F550FCA-071A-4E9B-9E5A-BDD279C4495D}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2802,13 +2810,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>314</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -2828,7 +2836,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3379,7 +3387,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s">
         <v>184</v>
@@ -3415,7 +3423,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE76EBDC-CA78-46C2-968E-6F1A2B0B09E8}">
   <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
@@ -3453,13 +3461,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>314</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -3473,13 +3481,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>302</v>
+        <v>340</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -3493,13 +3501,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C4" t="s">
         <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -3996,8 +4004,9 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -4044,13 +4053,13 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
         <v>313</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>314</v>
       </c>
       <c r="E2" t="s">
         <v>26</v>
@@ -4064,13 +4073,13 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C3" t="s">
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
         <v>26</v>
@@ -4084,13 +4093,13 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C4" t="s">
         <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E4" t="s">
         <v>26</v>
@@ -4104,13 +4113,13 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C5" t="s">
         <v>248</v>
       </c>
       <c r="D5" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E5" t="s">
         <v>26</v>
@@ -4130,7 +4139,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E6" t="s">
         <v>26</v>
@@ -4144,13 +4153,13 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>309</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" t="s">
         <v>310</v>
-      </c>
-      <c r="C7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" t="s">
-        <v>311</v>
       </c>
       <c r="E7" t="s">
         <v>26</v>
@@ -4387,7 +4396,7 @@
         <v>279</v>
       </c>
       <c r="C19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D19" t="s">
         <v>280</v>
@@ -4544,13 +4553,13 @@
         <v>86</v>
       </c>
       <c r="B27" t="s">
+        <v>316</v>
+      </c>
+      <c r="C27" t="s">
         <v>317</v>
       </c>
-      <c r="C27" t="s">
+      <c r="D27" t="s">
         <v>318</v>
-      </c>
-      <c r="D27" t="s">
-        <v>319</v>
       </c>
       <c r="E27" t="s">
         <v>26</v>
@@ -4564,13 +4573,13 @@
         <v>89</v>
       </c>
       <c r="B28" t="s">
+        <v>319</v>
+      </c>
+      <c r="C28" t="s">
         <v>320</v>
       </c>
-      <c r="C28" t="s">
+      <c r="D28" t="s">
         <v>321</v>
-      </c>
-      <c r="D28" t="s">
-        <v>322</v>
       </c>
       <c r="E28" t="s">
         <v>26</v>
@@ -4584,13 +4593,13 @@
         <v>185</v>
       </c>
       <c r="B29" t="s">
+        <v>322</v>
+      </c>
+      <c r="C29" t="s">
         <v>323</v>
       </c>
-      <c r="C29" t="s">
+      <c r="D29" t="s">
         <v>324</v>
-      </c>
-      <c r="D29" t="s">
-        <v>325</v>
       </c>
       <c r="E29" t="s">
         <v>26</v>
@@ -4604,13 +4613,13 @@
         <v>186</v>
       </c>
       <c r="B30" t="s">
+        <v>325</v>
+      </c>
+      <c r="C30" t="s">
         <v>326</v>
       </c>
-      <c r="C30" t="s">
+      <c r="D30" t="s">
         <v>327</v>
-      </c>
-      <c r="D30" t="s">
-        <v>328</v>
       </c>
       <c r="E30" t="s">
         <v>26</v>
@@ -4621,16 +4630,16 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B31" t="s">
+        <v>328</v>
+      </c>
+      <c r="C31" t="s">
         <v>329</v>
       </c>
-      <c r="C31" t="s">
+      <c r="D31" t="s">
         <v>330</v>
-      </c>
-      <c r="D31" t="s">
-        <v>331</v>
       </c>
       <c r="E31" t="s">
         <v>26</v>
@@ -4641,16 +4650,16 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B32" t="s">
+        <v>331</v>
+      </c>
+      <c r="C32" t="s">
         <v>332</v>
       </c>
-      <c r="C32" t="s">
+      <c r="D32" t="s">
         <v>333</v>
-      </c>
-      <c r="D32" t="s">
-        <v>334</v>
       </c>
       <c r="E32" t="s">
         <v>26</v>
